--- a/data/TC006_NegativeLoginTest_With_Mobno.xlsx
+++ b/data/TC006_NegativeLoginTest_With_Mobno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aravind\eclipse-workspace\Spicejet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC6EFCE-3707-43AE-81B9-6FDD24D8B558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBABA8-B9D2-4508-86FF-D9C3BA94D6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -393,10 +393,9 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,9 +405,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -418,7 +416,6 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
